--- a/NameBasesExtracter/bin/Debug/net6.0/1C_basesLists/1C_basesList1.xlsx
+++ b/NameBasesExtracter/bin/Debug/net6.0/1C_basesLists/1C_basesList1.xlsx
@@ -47,7 +47,7 @@
     <t>BL_Golfstrim</t>
   </si>
   <si>
-    <t>Корпорация [р</t>
+    <t>Корпорация [р]</t>
   </si>
   <si>
     <t>BL_Korp</t>

--- a/NameBasesExtracter/bin/Debug/net6.0/1C_basesLists/1C_basesList1.xlsx
+++ b/NameBasesExtracter/bin/Debug/net6.0/1C_basesLists/1C_basesList1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Название 1С базы</t>
   </si>
@@ -30,120 +30,6 @@
   </si>
   <si>
     <t>Ссылка на базу</t>
-  </si>
-  <si>
-    <t>Берег(БП2.0)</t>
-  </si>
-  <si>
-    <t>ServerKras</t>
-  </si>
-  <si>
-    <t>BL_Bereg</t>
-  </si>
-  <si>
-    <t>Гольфстрим(БП2.0)</t>
-  </si>
-  <si>
-    <t>BL_Golfstrim</t>
-  </si>
-  <si>
-    <t>Корпорация [р]</t>
-  </si>
-  <si>
-    <t>BL_Korp</t>
-  </si>
-  <si>
-    <t>Любимое чадо Новая</t>
-  </si>
-  <si>
-    <t>BL_LCHadoN</t>
-  </si>
-  <si>
-    <t>Оранжерея(БП2.0)</t>
-  </si>
-  <si>
-    <t>BL_Orang</t>
-  </si>
-  <si>
-    <t>РегионТЕК (БП3.0)</t>
-  </si>
-  <si>
-    <t>BL_RegTek</t>
-  </si>
-  <si>
-    <t>Техноторг(БП2.0)</t>
-  </si>
-  <si>
-    <t>BL_Tehnotorg</t>
-  </si>
-  <si>
-    <t>Оранжерея</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>e:\BD\Orang\</t>
-  </si>
-  <si>
-    <t>Консультант (БП3.0)</t>
-  </si>
-  <si>
-    <t>BL_Kons1</t>
-  </si>
-  <si>
-    <t>Балахта 070721</t>
-  </si>
-  <si>
-    <t>E:\BD_rem\Balahta</t>
-  </si>
-  <si>
-    <t>АвторСталь(рабочая)</t>
-  </si>
-  <si>
-    <t>KE_AvtorStal</t>
-  </si>
-  <si>
-    <t>АбаканСтрой(БП3.0)</t>
-  </si>
-  <si>
-    <t>BL_AbakanStr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Балахта</t>
-  </si>
-  <si>
-    <t>BL_Balahta</t>
-  </si>
-  <si>
-    <t>Интер рабочая</t>
-  </si>
-  <si>
-    <t>BL_Inter</t>
-  </si>
-  <si>
-    <t>Техноторг</t>
-  </si>
-  <si>
-    <t>c:\1CBases\TehTorg\</t>
-  </si>
-  <si>
-    <t>Техноторг(восстановление)</t>
-  </si>
-  <si>
-    <t>BL_TexnoK</t>
-  </si>
-  <si>
-    <t>Корпорация (070823</t>
-  </si>
-  <si>
-    <t>BL_Kons_0708</t>
-  </si>
-  <si>
-    <t>Консультант (Копия)</t>
-  </si>
-  <si>
-    <t>BL_Kons_K</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -662,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.57421875" widthPt="129" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28125" widthPt="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" widthPt="98.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.00390625" widthPt="89.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.57421875" widthPt="39.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" widthPt="77.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75">
@@ -684,204 +570,6 @@
         <v>2</v>
       </c>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="12.75">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.75">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.75">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.75">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12.75">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.75">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12.75">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="12.75">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="12.75">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.75">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
   <printOptions/>
@@ -928,42 +616,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
